--- a/采购收支月表201906.xlsx
+++ b/采购收支月表201906.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA7FDA2-8609-4ED4-8CE6-61DF2F526A25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C80E8-F892-408B-B4B6-0DD98DBC1276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>收款日期</t>
   </si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>荔枝、西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄、西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夫饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD钙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +417,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -676,7 +700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,8 +807,18 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="2">
+        <v>43627</v>
+      </c>
+      <c r="H3" s="12">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -799,8 +833,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="2">
+        <v>43627</v>
+      </c>
+      <c r="H4" s="12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -814,8 +855,15 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="2">
+        <v>43627</v>
+      </c>
+      <c r="H5" s="12">
+        <v>92.6</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -832,8 +880,15 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="14"/>
+      <c r="G6" s="2">
+        <v>43627</v>
+      </c>
+      <c r="H6" s="12">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -847,8 +902,15 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="2">
+        <v>43627</v>
+      </c>
+      <c r="H7" s="12">
+        <v>98.4</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1061,6 +1123,9 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43619</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>19</v>
@@ -1135,7 +1200,7 @@
       </c>
       <c r="B30" s="5">
         <f>SUM(B2:B25)</f>
-        <v>1807.0900000000001</v>
+        <v>1907.0900000000001</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1146,14 +1211,14 @@
       </c>
       <c r="H30" s="13">
         <f>SUM(H2:H29)</f>
-        <v>170.5</v>
+        <v>510</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="13">
         <f>B30-H30</f>
-        <v>1636.5900000000001</v>
+        <v>1397.0900000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201906.xlsx
+++ b/采购收支月表201906.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C80E8-F892-408B-B4B6-0DD98DBC1276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39A84B9-D1C1-42A8-8E72-32C396988688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>收款日期</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶酪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄桃、西瓜、香蕉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +712,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F34"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,8 +939,15 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="2">
+        <v>43631</v>
+      </c>
+      <c r="H8" s="12">
+        <v>51.6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -942,8 +961,18 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="2">
+        <v>43633</v>
+      </c>
+      <c r="H9" s="12">
+        <v>72.819999999999993</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -1211,14 +1240,14 @@
       </c>
       <c r="H30" s="13">
         <f>SUM(H2:H29)</f>
-        <v>510</v>
+        <v>634.42000000000007</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="13">
         <f>B30-H30</f>
-        <v>1397.0900000000001</v>
+        <v>1272.67</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201906.xlsx
+++ b/采购收支月表201906.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39A84B9-D1C1-42A8-8E72-32C396988688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE8180-00AB-4A32-BBAF-0F8296AD1B36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>收款日期</t>
   </si>
@@ -189,6 +189,22 @@
   </si>
   <si>
     <t>黄桃、西瓜、香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼、雪饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青提、哈密瓜、芒果、荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小浣熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜乳大饼、桃酥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,8 +727,8 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -986,8 +1002,18 @@
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="2">
+        <v>43633</v>
+      </c>
+      <c r="H10" s="12">
+        <v>105.2</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -1002,9 +1028,18 @@
       <c r="D11" s="3"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="2">
+        <v>43634</v>
+      </c>
+      <c r="H11" s="12">
+        <v>92.7</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -1018,8 +1053,15 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="2">
+        <v>43634</v>
+      </c>
+      <c r="H12" s="12">
+        <v>52</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -1034,8 +1076,15 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="2">
+        <v>43634</v>
+      </c>
+      <c r="H13" s="12">
+        <v>60</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -1050,8 +1099,15 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="2">
+        <v>43634</v>
+      </c>
+      <c r="H14" s="12">
+        <v>43.6</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -1240,14 +1296,14 @@
       </c>
       <c r="H30" s="13">
         <f>SUM(H2:H29)</f>
-        <v>634.42000000000007</v>
+        <v>987.92000000000019</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="13">
         <f>B30-H30</f>
-        <v>1272.67</v>
+        <v>919.17</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201906.xlsx
+++ b/采购收支月表201906.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE8180-00AB-4A32-BBAF-0F8296AD1B36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8777C2-7F8D-430C-ADB0-68F02991ECF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>收款日期</t>
   </si>
@@ -205,6 +205,50 @@
   </si>
   <si>
     <t>鲜乳大饼、桃酥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜、香蕉、提子、黄桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食很忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄桃、西瓜、桂圆、密瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜、荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山楂片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳酸菌面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙琪玛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,8 +771,8 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1122,8 +1166,18 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="2">
+        <v>43636</v>
+      </c>
+      <c r="H15" s="12">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -1137,9 +1191,18 @@
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="3"/>
+      <c r="G16" s="2">
+        <v>43636</v>
+      </c>
+      <c r="H16" s="12">
+        <v>43.6</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -1153,8 +1216,15 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="2">
+        <v>43640</v>
+      </c>
+      <c r="H17" s="12">
+        <v>83.5</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -1169,9 +1239,18 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="3"/>
+      <c r="G18" s="2">
+        <v>43642</v>
+      </c>
+      <c r="H18" s="12">
+        <v>69</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -1185,9 +1264,18 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="3"/>
+      <c r="G19" s="2">
+        <v>43644</v>
+      </c>
+      <c r="H19" s="12">
+        <v>70</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -1201,8 +1289,15 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="2">
+        <v>43644</v>
+      </c>
+      <c r="H20" s="12">
+        <v>60.74</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1217,45 +1312,87 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="2">
+        <v>43644</v>
+      </c>
+      <c r="H21" s="12">
+        <v>91.6</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="2">
+        <v>43644</v>
+      </c>
+      <c r="H22" s="12">
+        <v>97</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="8"/>
+      <c r="G23" s="2">
+        <v>43644</v>
+      </c>
+      <c r="H23" s="12">
+        <v>37.6</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="2">
+        <v>43644</v>
+      </c>
+      <c r="H24" s="12">
+        <v>33</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="C25" s="15"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="2">
+        <v>43644</v>
+      </c>
+      <c r="H25" s="12">
+        <v>39.9</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="2"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="2">
+        <v>43644</v>
+      </c>
+      <c r="H26" s="12">
+        <v>117.6</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C27" s="15"/>
@@ -1296,14 +1433,14 @@
       </c>
       <c r="H30" s="13">
         <f>SUM(H2:H29)</f>
-        <v>987.92000000000019</v>
+        <v>1770.26</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="13">
         <f>B30-H30</f>
-        <v>919.17</v>
+        <v>136.83000000000015</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201906.xlsx
+++ b/采购收支月表201906.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8777C2-7F8D-430C-ADB0-68F02991ECF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D3D54-C37A-4AC2-8D87-FA94A37FFFFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>收款日期</t>
   </si>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>沙琪玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +493,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -772,7 +776,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1398,8 +1402,18 @@
       <c r="C27" s="15"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="2">
+        <v>43647</v>
+      </c>
+      <c r="H27" s="12">
+        <v>15</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E28" s="17"/>
@@ -1433,14 +1447,14 @@
       </c>
       <c r="H30" s="13">
         <f>SUM(H2:H29)</f>
-        <v>1770.26</v>
+        <v>1785.26</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="13">
         <f>B30-H30</f>
-        <v>136.83000000000015</v>
+        <v>121.83000000000015</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
